--- a/your-project/Organisation/Which Cleaning Methods to Which DFs for Analysis.xlsx
+++ b/your-project/Organisation/Which Cleaning Methods to Which DFs for Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellio\Documents\GitHub\projects\Project-Week-8-Final-Project\your-project\Organisation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE31D1D-DCC5-491B-874B-CEEFCCA09EF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2651BB38-63D2-41E5-92D4-4D25B6AA4236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2B3A91E1-AF5E-4D5B-8F17-B52958631903}"/>
   </bookViews>
